--- a/biology/Neurosciences/Classement_thématique_des_neurosciences/Classement_thématique_des_neurosciences.xlsx
+++ b/biology/Neurosciences/Classement_thématique_des_neurosciences/Classement_thématique_des_neurosciences.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Classement_th%C3%A9matique_des_neurosciences</t>
+          <t>Classement_thématique_des_neurosciences</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le classement thématique sert à classer les articles par thèmes, seuls les liens pertinents seront proposés et ils peuvent différer des liens de la page. Les grandes pages à titres peuvent être rajoutées à la fin s'il y en a.
 Les domaines seront classés par ordre alphabétique :
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Classement_th%C3%A9matique_des_neurosciences</t>
+          <t>Classement_thématique_des_neurosciences</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Cerveau</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>organe, méninges, bulbe rachidien, amygdale (cerveau), cortex cérébral, système nerveux, neurone, système hormonal, épiphyse, hypothalamus, homéostasie, moelle épinière
 environnement, stimulus, information
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Classement_th%C3%A9matique_des_neurosciences</t>
+          <t>Classement_thématique_des_neurosciences</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>accident vasculaire cérébral, lésion cérébrale, insomnie, stress, douleur, drogue, tumeur cérébrale, aphasie, dyslexie, maladie de Parkinson
 plasticité synaptique, neuropsychologie, neurologie, psychologie, symptôme, effet placebo</t>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Classement_th%C3%A9matique_des_neurosciences</t>
+          <t>Classement_thématique_des_neurosciences</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Méthodes d'analyse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>. Interprétation de résultats
 . Réflexions critiques sur les méthodes d'analyse : méthode scientifique, épistémologie, phrénologie, morphopsychologie, bioéthique
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Classement_th%C3%A9matique_des_neurosciences</t>
+          <t>Classement_thématique_des_neurosciences</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Moelle épinière</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>réflexe d'extension, réflexe de flexion, système nerveux orthosympathique, système nerveux parasympathique, colonne vertébrale, stimulus, substance blanche, substance grise, nerf, cellule sensorielle, ganglion nerveux, récepteur sensoriel, plaque motrice
 système nerveux, muscle, transduction de signaux</t>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Classement_th%C3%A9matique_des_neurosciences</t>
+          <t>Classement_thématique_des_neurosciences</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Molécules (toutes les tailles)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>acide aminé, peptide, polypeptide, hormone, neurotransmetteur, ADN, ATP, ADP, protéine, lipide, glucide, sucre, phosphate, magnésium, lithium, amidon, amine, oses
 acétylcholine, dopamine, catécholamine, tyrosine dopamine, noradrénaline, adrénaline, opiacé, acide glutamique, acide aspartique, GABA, glycine, glucose, lactose, fructose, mélanine</t>
@@ -658,7 +680,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Classement_th%C3%A9matique_des_neurosciences</t>
+          <t>Classement_thématique_des_neurosciences</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -676,7 +698,9 @@
           <t>Neurone</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>potentiel d'action, synapse, neurotransmetteur, axoplasme, dendrite, ions, canal ionique, récepteur synaptique, mitochondrie, développement du neurone
 Cellule gliale, moelle épinière, système nerveux</t>
@@ -689,7 +713,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Classement_th%C3%A9matique_des_neurosciences</t>
+          <t>Classement_thématique_des_neurosciences</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,7 +731,9 @@
           <t>Neurosciences</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>moelle épinière, cerveau, muscle, système nerveux
 physiologie, biologie, physique, chimie, neuroanatomie, neurosciences cognitives, neurophysiologie, neuropsychologie
@@ -722,7 +748,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Classement_th%C3%A9matique_des_neurosciences</t>
+          <t>Classement_thématique_des_neurosciences</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -740,7 +766,9 @@
           <t>Organe</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>fonction, anatomie, moelle épinière, système nerveux, cerveau
 vie</t>
@@ -753,7 +781,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Classement_th%C3%A9matique_des_neurosciences</t>
+          <t>Classement_thématique_des_neurosciences</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -771,7 +799,9 @@
           <t>Sens</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>rétine, photorécepteur, vision, nez, odorat, toucher, douleur, ouïe, discrimination, attention, langue, goût
 transduction de signaux, aires sensorielles</t>
@@ -784,7 +814,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Classement_th%C3%A9matique_des_neurosciences</t>
+          <t>Classement_thématique_des_neurosciences</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -802,7 +832,9 @@
           <t>Système nerveux</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Neurone, Cellule gliale, synapse, neurotransmetteur, plasticité synaptique, réflexe d'extension, réflexe de flexion, cerveau, moelle épinière
 système hormonal, système nerveux central, système nerveux périphérique</t>
@@ -815,7 +847,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Classement_th%C3%A9matique_des_neurosciences</t>
+          <t>Classement_thématique_des_neurosciences</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -833,7 +865,9 @@
           <t>Système hormonal</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>hormone, sang, lymphe, phéromone, hypothalamus, hypophyse, système limbique, système endocrinien
 reproduction, différenciation cellulaire, homéostasie, émotions</t>
@@ -846,7 +880,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Classement_th%C3%A9matique_des_neurosciences</t>
+          <t>Classement_thématique_des_neurosciences</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -864,7 +898,9 @@
           <t>Pages à titres</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Inactivation du neuromédiateur
 Liste des symptômes en médecine humaine
